--- a/ghib.xlsx
+++ b/ghib.xlsx
@@ -15912,7 +15912,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
+    <col customWidth="1" min="1" max="1" width="59.0"/>
     <col customWidth="1" min="4" max="4" width="28.38"/>
   </cols>
   <sheetData>

--- a/ghib.xlsx
+++ b/ghib.xlsx
@@ -3018,7 +3018,7 @@
     <xdr:ext cx="3248025" cy="2247900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3087,7 +3087,7 @@
     <xdr:ext cx="2914650" cy="2914650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/ghib.xlsx
+++ b/ghib.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="860">
   <si>
     <t>Movie</t>
   </si>
@@ -2339,6 +2339,9 @@
   </si>
   <si>
     <t>Harold &amp; Kumar Go to White Castle</t>
+  </si>
+  <si>
+    <t>Training Day</t>
   </si>
   <si>
     <t>Violent Night</t>
@@ -15976,6 +15979,16 @@
         <v>751</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="s">
+        <v>752</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15996,127 +16009,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26">
@@ -16126,27 +16139,27 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32">
@@ -16156,32 +16169,32 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="39">
@@ -16191,17 +16204,17 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43">
@@ -16216,92 +16229,92 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -16328,10 +16341,10 @@
         <v>635</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2">
@@ -16339,23 +16352,23 @@
         <v>529</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5">
@@ -16365,7 +16378,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -16376,15 +16389,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
@@ -16397,7 +16410,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12">
@@ -16407,7 +16420,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14">
@@ -16417,22 +16430,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>368</v>
@@ -16440,7 +16453,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>368</v>
@@ -16448,12 +16461,12 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>368</v>
@@ -16461,7 +16474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>368</v>
@@ -16474,32 +16487,32 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>368</v>
@@ -16507,17 +16520,17 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>368</v>
@@ -16525,22 +16538,22 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>368</v>
@@ -16548,18 +16561,18 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>368</v>
@@ -16572,7 +16585,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>368</v>
@@ -16580,12 +16593,12 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>368</v>
@@ -16593,40 +16606,40 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="50">
@@ -16636,7 +16649,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52">
@@ -16649,7 +16662,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="54">

--- a/ghib.xlsx
+++ b/ghib.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="867">
   <si>
     <t>Movie</t>
   </si>
@@ -2342,6 +2342,27 @@
   </si>
   <si>
     <t>Training Day</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Don't Look Up</t>
+  </si>
+  <si>
+    <t>The Boy Who Harnessed the Wind</t>
+  </si>
+  <si>
+    <t>Seaspiracy</t>
+  </si>
+  <si>
+    <t>Dark Waters</t>
+  </si>
+  <si>
+    <t>Okja</t>
   </si>
   <si>
     <t>Violent Night</t>
@@ -3021,7 +3042,7 @@
     <xdr:ext cx="3248025" cy="2247900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3090,7 +3111,7 @@
     <xdr:ext cx="2914650" cy="2914650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -12223,7 +12244,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="38">
         <v>1917.0</v>
       </c>
     </row>
@@ -15989,6 +16010,46 @@
         <v>752</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16009,127 +16070,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26">
@@ -16139,27 +16200,27 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32">
@@ -16169,32 +16230,32 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39">
@@ -16204,17 +16265,17 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43">
@@ -16229,92 +16290,92 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -16341,10 +16402,10 @@
         <v>635</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2">
@@ -16352,23 +16413,23 @@
         <v>529</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5">
@@ -16378,7 +16439,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -16389,15 +16450,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10">
@@ -16410,7 +16471,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12">
@@ -16420,7 +16481,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14">
@@ -16430,22 +16491,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>368</v>
@@ -16453,7 +16514,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>368</v>
@@ -16461,12 +16522,12 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>368</v>
@@ -16474,7 +16535,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>368</v>
@@ -16487,32 +16548,32 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>368</v>
@@ -16520,17 +16581,17 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>368</v>
@@ -16538,22 +16599,22 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>368</v>
@@ -16561,18 +16622,18 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>368</v>
@@ -16585,7 +16646,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>368</v>
@@ -16593,12 +16654,12 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>368</v>
@@ -16606,40 +16667,40 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50">
@@ -16649,7 +16710,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52">
@@ -16662,7 +16723,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54">

--- a/ghib.xlsx
+++ b/ghib.xlsx
@@ -12214,32 +12214,32 @@
       <c r="AB1055" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C67 B77:C1055 D77:L78">
+  <conditionalFormatting sqref="B2:C76 B77:C1055 D77:L78">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C67 B77:C1055 D77:L78">
+  <conditionalFormatting sqref="B2:C76 B77:C1055 D77:L78">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C67 B77:C1055 D77:L78">
+  <conditionalFormatting sqref="B2:C75 B77:C1055 D77:L78">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH(("B"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C67 B77:C1055 D77:L78">
+  <conditionalFormatting sqref="B2:C76 B77:C1055 D77:L78">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH(("C"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C67 B77:C1055 D77:L78">
+  <conditionalFormatting sqref="B2:C76 B77:C1055 D77:L78">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH(("D"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C67 B77:C1055 D77:L78">
+  <conditionalFormatting sqref="B2:C76 B77:C1055 D77:L78">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH(("S"),(B2))))</formula>
     </cfRule>
